--- a/medicine/Maladies infectieuses/Ehrlichiose_monocytique_humaine/Ehrlichiose_monocytique_humaine.xlsx
+++ b/medicine/Maladies infectieuses/Ehrlichiose_monocytique_humaine/Ehrlichiose_monocytique_humaine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Ehrlichiose monocytique (ou monocytaire) humaine (EMH) ou « Ehrlichiose à Ehrlichia chaffeensis » est l'une des différentes ehrlichioses. C'est une maladie infectieuse (bactérienne) vectorielle ; l'une des dizaines de maladies vectorielles transmises par la morsure de tiques (maladies à tiques).
 Elle est due à une bactérie (Ehrlichia chaffeensis), du genre Ehrlichia, de la famille des Anaplasmataceae (embranchement de Proteobacteria). Ehrlichia chaffeensis infecte rarement l'Homme, mais les infections détectées sont souvent graves (hospitalisation dans 40 à 80 p. cent des cas).Cette bactérie infecte préférentiellement (tropisme préférentiel) ; in vivo ; les monocytes et les macrophages de l'organisme dans lequel elle a pu être inoculée (généralement par une piqûre de tique). Cette ehrlichiose est dite « monocytique », car les monocytes des malades sont les cellules les plus visiblement infectées. Au pic de l'infection, elles sont nombreuses à présenter des morulae (sortes de minuscules kystes contenant jusqu'à plusieurs dizaines de bactéries agglomérées, croissant dans le globule même et ainsi protégées du système immunitaire).
@@ -513,7 +525,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Leur intensité varie selon le malade (de cas asymptomatiques à des formes graves avec insuffisance rénale, ou rhabdomyolyses ou myocardites) sont également observées.
 Fièvre, anorexie, céphalées, myalgies, arthralgies, nausées, vomissements, douleurs abdominales,
@@ -549,7 +563,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L’isolement via des cultures cellulaires est réservé à la recherche et non utilisé par le diagnostic de routine.
 En phase aiguë :
@@ -585,13 +601,15 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Avant 1987, on pensait que la bactérie Ehrlichia sennetsu (du genre Ehrlichia, et de la famille des Anaplasmataceae) était l'unique agent causal d'ehrlichiose chez l'Homme.
-On a ensuite découvert d'autres agents microbiens de la même famille (dont Ehrlichia canis)[1].
-Différentes souches de cette bactérie ont été identifiées dans les années 1990 dont aux USA la souche Arkansas, génétiquement proche, mais différente (réponses sérologiques différentes) de Ehrlichia canis [2].
-En 1991, Anderson et ses collègues ont proposé de nommer Ehrlichia chaffeensis les bactéries de la souche Arkansas (ou génétiquement très proches[3] de cette souche), maintenant considérées comme appartenant une « nouvelle » espèce, responsable de l'ehrlichiose monocytique humaine. Cette dénomination sera officiellement validée en 1992 (inscription sur la liste de validation n° 41). Pour des raisons phylogénétiques, Ehrlichia chaffeensis a alors été classée dans le groupe génomique I de la tribu des Ehrlichieae.
-Enfin, en 2001, une réorganisation de l'ordre des Rickettsiales[4] a conduit Dumler et son équipe à supprimer la tribu des Ehrlichieae, à reclasser le genre Ehrlichia dans la famille des Anaplasmataceae et à modifier la description du genre Ehrlichia (maintenant réduit aux seules espèces du groupe génomique I).
+On a ensuite découvert d'autres agents microbiens de la même famille (dont Ehrlichia canis).
+Différentes souches de cette bactérie ont été identifiées dans les années 1990 dont aux USA la souche Arkansas, génétiquement proche, mais différente (réponses sérologiques différentes) de Ehrlichia canis .
+En 1991, Anderson et ses collègues ont proposé de nommer Ehrlichia chaffeensis les bactéries de la souche Arkansas (ou génétiquement très proches de cette souche), maintenant considérées comme appartenant une « nouvelle » espèce, responsable de l'ehrlichiose monocytique humaine. Cette dénomination sera officiellement validée en 1992 (inscription sur la liste de validation n° 41). Pour des raisons phylogénétiques, Ehrlichia chaffeensis a alors été classée dans le groupe génomique I de la tribu des Ehrlichieae.
+Enfin, en 2001, une réorganisation de l'ordre des Rickettsiales a conduit Dumler et son équipe à supprimer la tribu des Ehrlichieae, à reclasser le genre Ehrlichia dans la famille des Anaplasmataceae et à modifier la description du genre Ehrlichia (maintenant réduit aux seules espèces du groupe génomique I).
 </t>
         </is>
       </c>
@@ -620,7 +638,9 @@
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour les souches étudiées in vitro :
 doxycycline (traitement le plus fréquent chez l'homme et le chien) et rifampicine sont rapidement actifs.
@@ -654,7 +674,9 @@
           <t>Mesures prophylactiques et de précaution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Il n’existe pas de vaccin contre Ehrlichia chaffeensis.
 Les conseils prophylactiques sont de limiter l'exposition aux tiques et de ne pas favoriser leur développement.</t>
@@ -685,7 +707,9 @@
           <t>Épidémiologie, écoépidémiologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Amérique du Nord
 C'est aux États-Unis que Ehrlichia chaffeensis a été la plus étudiée mais elle n'est une maladie à déclaration obligatoire que depuis 1998.
@@ -723,14 +747,14 @@
           <t>Ailleurs qu'en Amérique du Nord</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Faute d'études écoépidémiologique et épidémiologiques, la situation est mal connue.
 La présence de la bactérie et sa capacité à infecter l'Homme sont connues par quelques examens sérologiques, et la détection de quelques cas d'ehrlichioses humaines à Ehrlichia chaffeensis en zone chaude ou tempérée, comme au Portugal, en Espagne, en Belgique, en Afrique (Mali, Tunisie) et en Asie (Thaïlande, Chine).
 Amblyomma americanum principal vecteur connu n'existe qu'en Amérique du Nord, mais on a au début des années 2000 également trouvé (par PCR), la bactérie pathogène dans l’organisme d'autres espèces de tique en Chine Amblyomma testudinarium et Haemaphysalis yeni, deux tiques parasitant régulièrement le bétail ainsi pour la seconde que des lagomorphes sauvages (Lepus sinensis, Caprologus sinensis) et des caprins sauvages (Muntiacus reevesi).
 Pour évaluer l'importance réelle de l'ehrlichiose à Ehrlichia chaffeensis, d'autres études seraient nécessaires pour tester plus largement les populations de tiques ou d'espèces potentiellement réservoir.
-Fréquence, prévalence
-Cette maladie et mal connue, faute d'études suffisantes, quelques études sérologiques montre que de nombreux cas ne sont pas diagnostiqués ; De 1987 à 1999, ce sont environ 750 sérologies positives qui ont été mises en évidence par les Centers for Disease Control and Prevention et plus de 1500 par le seul MRL Reference Laboratory de Californie.
 </t>
         </is>
       </c>
@@ -756,10 +780,49 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Ailleurs qu'en Amérique du Nord</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fréquence, prévalence</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette maladie et mal connue, faute d'études suffisantes, quelques études sérologiques montre que de nombreux cas ne sont pas diagnostiqués ; De 1987 à 1999, ce sont environ 750 sérologies positives qui ont été mises en évidence par les Centers for Disease Control and Prevention et plus de 1500 par le seul MRL Reference Laboratory de Californie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ehrlichiose_monocytique_humaine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ehrlichiose_monocytique_humaine</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Cultures</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>La mise en culture est possible :
 sur lignées de macrophages de chiens (cellules DH82). Le milieu de culture (minimal essential medium contenant 1 p. cent de L-glutamine) est enrichi en sérum de veau fœtal (5 à 12,5 p. cent) et les cellules peuvent être incubées à 37 °C dans une atmosphère contenant ou non du dioxyde de carbone.
@@ -767,31 +830,33 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Ehrlichiose_monocytique_humaine</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Maladies infectieuses/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ehrlichiose_monocytique_humaine</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ehrlichiose_monocytique_humaine</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ehrlichiose_monocytique_humaine</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Critères bactériologiques</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Ehrlichia chaffeensis présente les mêmes caractères bactériologiques que les autres bactéries du genre Ehrlichia.
 tropisme préférentiel (in vivo) pour les monocytes et les macrophages.
@@ -808,31 +873,33 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Ehrlichiose_monocytique_humaine</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Maladies infectieuses/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ehrlichiose_monocytique_humaine</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ehrlichiose_monocytique_humaine</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ehrlichiose_monocytique_humaine</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Critères génétiques</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Ehrlichia chaffeensis a de fortes similitudes antigéniques avec
 Ehrlichia canis mais des réactions sérologiques croisées sont observées avec d'autres représentants de la famille des Anaplasmataceae :
